--- a/notebooks/f1_2025_data_rankings/feature_weights.xlsx
+++ b/notebooks/f1_2025_data_rankings/feature_weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\projetos\f1_analytics\notebooks\f1_2025_data_rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2259B6-DF03-42F8-A137-7D9515F940F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FAE120-3EC5-409F-9C1E-5A1738D0EF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="9765" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCF4949-0219-4262-9BA7-D9E29BBEA966}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +523,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852B1824-FB50-449A-8371-9A3E1B1AA360}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -659,7 +661,7 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">

--- a/notebooks/f1_2025_data_rankings/feature_weights.xlsx
+++ b/notebooks/f1_2025_data_rankings/feature_weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\projetos\f1_analytics\notebooks\f1_2025_data_rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FAE120-3EC5-409F-9C1E-5A1738D0EF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F5232A-76EF-49F5-BC98-553856AE16F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp" sheetId="1" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
